--- a/media/Levels/DebugStage.xlsx
+++ b/media/Levels/DebugStage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oyush\Desktop\勉強\後期製作\Gチーム\media\Levels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{904E7A0A-9BBC-4109-9336-B90858A08706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3E00CA7-AB78-48ED-A8D2-DD22C746A8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3C4C346C-4FF8-4B1F-A3CA-0CE8F9C241B6}"/>
   </bookViews>
@@ -414,162 +414,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6871C066-E7CC-4A8F-B6F1-930C599F5902}">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-      <c r="G1">
-        <v>0</v>
-      </c>
-      <c r="H1">
-        <v>1</v>
-      </c>
-      <c r="I1">
-        <v>0</v>
-      </c>
-      <c r="J1">
-        <v>1</v>
-      </c>
-      <c r="K1">
-        <v>0</v>
-      </c>
-      <c r="L1">
-        <v>0</v>
-      </c>
-      <c r="M1">
-        <v>1</v>
-      </c>
-      <c r="N1">
-        <v>0</v>
-      </c>
-      <c r="O1">
-        <v>0</v>
-      </c>
-      <c r="P1">
-        <v>1</v>
-      </c>
-      <c r="Q1">
-        <v>0</v>
-      </c>
-      <c r="R1">
-        <v>0</v>
-      </c>
-      <c r="S1">
-        <v>1</v>
-      </c>
-      <c r="T1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="T3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>0</v>
-      </c>
+      <c r="U1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="U2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="U3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>0</v>
-      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>2</v>
-      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="T6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>0</v>
-      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>0</v>
-      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="D8">
         <v>2</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>2</v>
-      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="T9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>0</v>
-      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="D10">
         <v>0</v>
       </c>
@@ -591,75 +510,57 @@
       <c r="S10">
         <v>0</v>
       </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>0</v>
-      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="D11">
         <v>2</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>2</v>
-      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="D12">
         <v>0</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
-      <c r="T12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>0</v>
-      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>0</v>
-      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>2</v>
-      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="G15">
         <v>2</v>
       </c>
-      <c r="T15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>0</v>
-      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="G16">
         <v>0</v>
       </c>
@@ -681,126 +582,54 @@
       <c r="P16">
         <v>0</v>
       </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <v>0</v>
-      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
       <c r="G17">
         <v>0</v>
       </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A18">
-        <v>2</v>
-      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
       <c r="G18">
         <v>2</v>
       </c>
-      <c r="T18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <v>0</v>
-      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>0</v>
       </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="T21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A23">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>1</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>1</v>
-      </c>
-      <c r="T23">
+      <c r="U20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="U21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="U22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="U23">
         <v>0</v>
       </c>
     </row>

--- a/media/Levels/DebugStage.xlsx
+++ b/media/Levels/DebugStage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oyush\Desktop\勉強\後期製作\Gチーム\media\Levels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3E00CA7-AB78-48ED-A8D2-DD22C746A8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E07E120D-522A-41E6-9916-B7FC1586D898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3C4C346C-4FF8-4B1F-A3CA-0CE8F9C241B6}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
